--- a/data/AlgorithmParameter_short_comp.xlsx
+++ b/data/AlgorithmParameter_short_comp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66AB6D4-2A08-4D9B-B48F-C7B2FA28D3B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE43248-BF02-4FE9-B723-A31C5AF0BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PopSizeGA</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>PerturbationDE</t>
+  </si>
+  <si>
+    <t>ParetoSize</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,14 +455,15 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,27 +486,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -517,21 +524,24 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
         <v>0.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.9</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
     </row>

--- a/data/AlgorithmParameter_short_comp.xlsx
+++ b/data/AlgorithmParameter_short_comp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE43248-BF02-4FE9-B723-A31C5AF0BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5256E-49D2-4678-8174-0676D216EBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>PopSizeGA</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>ParetoSize</t>
+  </si>
+  <si>
+    <t>OF_options</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>OFs</t>
   </si>
 </sst>
 </file>
@@ -98,10 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +480,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,17 +511,23 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -524,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -543,6 +566,26 @@
       </c>
       <c r="M2">
         <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
